--- a/medicine/Enfance/Yvonne_Ostroga/Yvonne_Ostroga.xlsx
+++ b/medicine/Enfance/Yvonne_Ostroga/Yvonne_Ostroga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvonne Ostroga, née le 6 mars 1897 à Menton et morte le 9 décembre 1981 au Mesnil-Saint-Denis, est une femme de lettres, auteur d'ouvrages pour enfants.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvonne Zoé Mroczkowski Ostroga est la fille de Félix Ostroga et Jeanne Reclus[1], et compte parmi ses grands-parents Valerien Ostroga et Élisée Reclus.
-Elle épouse à Paris en 1951  Raymond Marie Joseph de Romanet de Beaune (1887-1976), maître de recherches au CNRS. Elle est secrétaire de Paul Bourget et collaboratrice de Pierre Benoit, et entre 1941 et 1967,  membre du Service des acquisitions de la Bibliothèque nationale de France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvonne Zoé Mroczkowski Ostroga est la fille de Félix Ostroga et Jeanne Reclus, et compte parmi ses grands-parents Valerien Ostroga et Élisée Reclus.
+Elle épouse à Paris en 1951  Raymond Marie Joseph de Romanet de Beaune (1887-1976), maître de recherches au CNRS. Elle est secrétaire de Paul Bourget et collaboratrice de Pierre Benoit, et entre 1941 et 1967,  membre du Service des acquisitions de la Bibliothèque nationale de France.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petites filles de la vieille France, Hachette, 1921, 191 p.
 Quand les fées vivaient en France, Hachette, 1923, 175 p.
@@ -585,7 +601,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1922 : Prix Dodo pour Petites filles de la vieille France
 1933 : Prix Montyon pour Les indépendantes, 25 professions pour les jeunes filles d'aujourd'hui</t>
